--- a/02soil_depth_statistics_with_ic_and_qc_avg_skipping_invalid.xlsx
+++ b/02soil_depth_statistics_with_ic_and_qc_avg_skipping_invalid.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yo\Desktop\CECI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C320D56-E676-413C-989B-54996D9DB4A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{742E9C9C-4E5B-4EE2-B653-6052BD2C24DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="3225" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7545" yWindow="3570" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -61,7 +61,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -76,7 +76,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
+        <fgColor rgb="FFFFCCCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -124,7 +148,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -134,12 +158,724 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="97">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99CCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99CCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99CCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99CCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99CCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99CCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99CCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99CCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFCCCC"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99CCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFCCCC"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99CCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFCCCC"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99CCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFCCCC"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99CCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFCCCC"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99CCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFCCCC"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99CCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFCCCC"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99CCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFCCCC"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99CCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFCCCC"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFCCCC"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFCCCC"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFCCCC"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFCCCC"/>
+      <color rgb="FF99CCFF"/>
+      <color rgb="FFCCECFF"/>
+      <color rgb="FFFFFF99"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -438,13 +1174,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
     <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
@@ -468,13 +1204,13 @@
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="6">
         <v>4.0199999999999996</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="6">
         <v>24.86</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="6">
         <v>1.7946622516556301</v>
       </c>
     </row>
@@ -482,13 +1218,13 @@
       <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="9">
         <v>24.88</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="9">
         <v>26.36</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="9">
         <v>2.172407407407408</v>
       </c>
     </row>
@@ -496,13 +1232,13 @@
       <c r="A4" s="2">
         <v>1</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="6">
         <v>26.38</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="6">
         <v>28</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="6">
         <v>1.9515789473684211</v>
       </c>
     </row>
@@ -510,13 +1246,13 @@
       <c r="A5" s="2">
         <v>2</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="9">
         <v>28.02</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="9">
         <v>29.26</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="9">
         <v>2.1134146341463418</v>
       </c>
     </row>
@@ -524,13 +1260,13 @@
       <c r="A6" s="2">
         <v>1</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="6">
         <v>29.28</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="6">
         <v>33.78</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="6">
         <v>1.9901612903225809</v>
       </c>
     </row>
@@ -538,13 +1274,13 @@
       <c r="A7" s="4">
         <v>2</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="9">
         <v>33.799999999999997</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="9">
         <v>34.32</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="9">
         <v>2.073</v>
       </c>
     </row>
@@ -552,13 +1288,13 @@
       <c r="A8" s="2">
         <v>1</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="6">
         <v>34.340000000000003</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="6">
         <v>38.5200000000006</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="6">
         <v>1.9262142857142861</v>
       </c>
     </row>
@@ -566,13 +1302,13 @@
       <c r="A9" s="2">
         <v>2</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="9">
         <v>38.540000000000497</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="9">
         <v>39.140000000000597</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="9">
         <v>2.1746428571428571</v>
       </c>
       <c r="E9" s="2"/>
@@ -581,13 +1317,13 @@
       <c r="A10" s="2">
         <v>5</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="12">
         <v>39.1600000000007</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="12">
         <v>46.8800000000019</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="12">
         <v>3.193555555555557</v>
       </c>
       <c r="E10" s="2"/>
@@ -596,13 +1332,13 @@
       <c r="A11" s="2">
         <v>4</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="17">
         <v>46.900000000001903</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="17">
         <v>48.6600000000021</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="17">
         <v>2.7238709677419339</v>
       </c>
       <c r="E11" s="2"/>
@@ -611,13 +1347,13 @@
       <c r="A12" s="2">
         <v>2</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="9">
         <v>48.680000000002103</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="9">
         <v>50.320000000002402</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="9">
         <v>2.198219178082192</v>
       </c>
     </row>
@@ -625,13 +1361,13 @@
       <c r="A13" s="2">
         <v>3</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="18">
         <v>50.340000000002398</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="18">
         <v>51.640000000002601</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13" s="18">
         <v>2.5020689655172408</v>
       </c>
     </row>
@@ -639,13 +1375,13 @@
       <c r="A14" s="2">
         <v>5</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="12">
         <v>51.660000000002597</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="12">
         <v>52.420000000002702</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="12">
         <v>3.238</v>
       </c>
     </row>
@@ -653,13 +1389,13 @@
       <c r="A15" s="2">
         <v>3</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="18">
         <v>52.440000000002698</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="18">
         <v>53.820000000002899</v>
       </c>
-      <c r="D15" s="6">
+      <c r="D15" s="18">
         <v>2.4353333333333329</v>
       </c>
     </row>
@@ -667,13 +1403,13 @@
       <c r="A16" s="3">
         <v>1</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16" s="7">
         <v>53.840000000002902</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="7">
         <v>62.260000000004297</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16" s="7">
         <v>1.9798550724637669</v>
       </c>
     </row>
@@ -681,13 +1417,13 @@
       <c r="A17" s="1">
         <v>2</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17" s="10">
         <v>62.2800000000043</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17" s="10">
         <v>64.800000000004701</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D17" s="10">
         <v>2.29609756097561</v>
       </c>
     </row>
@@ -695,13 +1431,13 @@
       <c r="A18" s="2">
         <v>5</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18" s="12">
         <v>64.820000000004697</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18" s="12">
         <v>66.160000000004899</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18" s="12">
         <v>3.092558139534884</v>
       </c>
     </row>
@@ -709,13 +1445,13 @@
       <c r="A19" s="2">
         <v>2</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B19" s="9">
         <v>66.180000000004895</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C19" s="9">
         <v>66.880000000004998</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D19" s="9">
         <v>2.0950000000000002</v>
       </c>
     </row>
@@ -723,13 +1459,13 @@
       <c r="A20" s="2">
         <v>1</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B20" s="6">
         <v>66.900000000004994</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C20" s="6">
         <v>68.040000000005193</v>
       </c>
-      <c r="D20" s="2">
+      <c r="D20" s="6">
         <v>1.7823076923076919</v>
       </c>
     </row>
@@ -737,13 +1473,13 @@
       <c r="A21" s="2">
         <v>3</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B21" s="18">
         <v>68.060000000005203</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C21" s="18">
         <v>68.620000000005305</v>
       </c>
-      <c r="D21" s="2">
+      <c r="D21" s="18">
         <v>2.3162500000000001</v>
       </c>
     </row>
@@ -751,13 +1487,13 @@
       <c r="A22" s="3">
         <v>1</v>
       </c>
-      <c r="B22" s="3">
+      <c r="B22" s="7">
         <v>68.640000000005301</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C22" s="7">
         <v>70.12</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="7">
         <v>1.9616</v>
       </c>
     </row>
@@ -765,13 +1501,13 @@
       <c r="A23" s="1">
         <v>5</v>
       </c>
-      <c r="B23" s="1">
+      <c r="B23" s="13">
         <v>70.14</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C23" s="13">
         <v>73.719999999999303</v>
       </c>
-      <c r="D23" s="1">
+      <c r="D23" s="13">
         <v>3.1688429752066112</v>
       </c>
     </row>
@@ -779,13 +1515,13 @@
       <c r="A24" s="2">
         <v>3</v>
       </c>
-      <c r="B24" s="2">
+      <c r="B24" s="18">
         <v>73.739999999999299</v>
       </c>
-      <c r="C24" s="2">
+      <c r="C24" s="18">
         <v>74.239999999999199</v>
       </c>
-      <c r="D24" s="2">
+      <c r="D24" s="18">
         <v>2.3492307692307688</v>
       </c>
     </row>
@@ -793,13 +1529,13 @@
       <c r="A25" s="2">
         <v>1</v>
       </c>
-      <c r="B25" s="2">
+      <c r="B25" s="6">
         <v>74.259999999999195</v>
       </c>
-      <c r="C25" s="2">
+      <c r="C25" s="6">
         <v>76.579999999998705</v>
       </c>
-      <c r="D25" s="2">
+      <c r="D25" s="6">
         <v>1.7459090909090911</v>
       </c>
     </row>
@@ -807,13 +1543,13 @@
       <c r="A26" s="2">
         <v>2</v>
       </c>
-      <c r="B26" s="2">
+      <c r="B26" s="9">
         <v>76.599999999998701</v>
       </c>
-      <c r="C26" s="2">
+      <c r="C26" s="9">
         <v>78.959999999998203</v>
       </c>
-      <c r="D26" s="2">
+      <c r="D26" s="9">
         <v>2.1859649122807019</v>
       </c>
     </row>
@@ -821,13 +1557,13 @@
       <c r="A27" s="2">
         <v>5</v>
       </c>
-      <c r="B27" s="2">
+      <c r="B27" s="12">
         <v>78.979999999998199</v>
       </c>
-      <c r="C27" s="2">
+      <c r="C27" s="12">
         <v>84.459999999997095</v>
       </c>
-      <c r="D27" s="2">
+      <c r="D27" s="12">
         <v>3.3504651162790662</v>
       </c>
     </row>
@@ -835,13 +1571,13 @@
       <c r="A28" s="2">
         <v>3</v>
       </c>
-      <c r="B28" s="2">
+      <c r="B28" s="18">
         <v>84.479999999997105</v>
       </c>
-      <c r="C28" s="2">
+      <c r="C28" s="18">
         <v>85.5799999999969</v>
       </c>
-      <c r="D28" s="2">
+      <c r="D28" s="18">
         <v>2.4170967741935478</v>
       </c>
     </row>
@@ -849,13 +1585,13 @@
       <c r="A29" s="2">
         <v>1</v>
       </c>
-      <c r="B29" s="2">
+      <c r="B29" s="6">
         <v>85.599999999996896</v>
       </c>
-      <c r="C29" s="2">
+      <c r="C29" s="6">
         <v>86.159999999996799</v>
       </c>
-      <c r="D29" s="2">
+      <c r="D29" s="6">
         <v>2.048</v>
       </c>
     </row>
@@ -863,13 +1599,13 @@
       <c r="A30" s="2">
         <v>2</v>
       </c>
-      <c r="B30" s="2">
+      <c r="B30" s="9">
         <v>86.179999999996795</v>
       </c>
-      <c r="C30" s="2">
+      <c r="C30" s="9">
         <v>87.139999999996604</v>
       </c>
-      <c r="D30" s="2">
+      <c r="D30" s="9">
         <v>2.236800000000001</v>
       </c>
     </row>
@@ -877,13 +1613,13 @@
       <c r="A31" s="2">
         <v>3</v>
       </c>
-      <c r="B31" s="2">
+      <c r="B31" s="18">
         <v>87.1599999999966</v>
       </c>
-      <c r="C31" s="2">
+      <c r="C31" s="18">
         <v>88.379999999996301</v>
       </c>
-      <c r="D31" s="2">
+      <c r="D31" s="18">
         <v>2.3976470588235288</v>
       </c>
     </row>
@@ -891,13 +1627,13 @@
       <c r="A32" s="2">
         <v>2</v>
       </c>
-      <c r="B32" s="2">
+      <c r="B32" s="9">
         <v>88.399999999996297</v>
       </c>
-      <c r="C32" s="2">
+      <c r="C32" s="9">
         <v>89.719999999996105</v>
       </c>
-      <c r="D32" s="2">
+      <c r="D32" s="9">
         <v>2.2702857142857149</v>
       </c>
     </row>
@@ -905,13 +1641,13 @@
       <c r="A33" s="3">
         <v>5</v>
       </c>
-      <c r="B33" s="3">
+      <c r="B33" s="14">
         <v>89.739999999996101</v>
       </c>
-      <c r="C33" s="3">
+      <c r="C33" s="14">
         <v>91.279999999995795</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="14">
         <v>3.1217391304347819</v>
       </c>
     </row>
@@ -919,13 +1655,13 @@
       <c r="A34">
         <v>2</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="11">
         <v>91.299999999995805</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="11">
         <v>96.219999999994798</v>
       </c>
-      <c r="D34">
+      <c r="D34" s="11">
         <v>2.1893984962406021</v>
       </c>
     </row>
@@ -933,13 +1669,13 @@
       <c r="A35">
         <v>1</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="8">
         <v>96.239999999994794</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="8">
         <v>96.879999999994695</v>
       </c>
-      <c r="D35">
+      <c r="D35" s="8">
         <v>2.0192000000000001</v>
       </c>
     </row>
@@ -947,13 +1683,13 @@
       <c r="A36">
         <v>4</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="16">
         <v>96.899999999994606</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="16">
         <v>98.059999999994403</v>
       </c>
-      <c r="D36">
+      <c r="D36" s="16">
         <v>2.6164999999999998</v>
       </c>
     </row>
@@ -961,13 +1697,13 @@
       <c r="A37">
         <v>2</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="11">
         <v>98.079999999994399</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="11">
         <v>100.539999999994</v>
       </c>
-      <c r="D37">
+      <c r="D37" s="11">
         <v>2.2196039603960398</v>
       </c>
     </row>
@@ -975,13 +1711,13 @@
       <c r="A38">
         <v>5</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="15">
         <v>100.55999999999401</v>
       </c>
-      <c r="C38">
+      <c r="C38" s="15">
         <v>104.599999999993</v>
       </c>
-      <c r="D38">
+      <c r="D38" s="15">
         <v>3.431780821917807</v>
       </c>
     </row>
@@ -989,26 +1725,33 @@
       <c r="A39">
         <v>2</v>
       </c>
-      <c r="B39">
+      <c r="B39" s="11">
         <v>104.619999999993</v>
       </c>
-      <c r="C39">
+      <c r="C39" s="11">
         <v>104.99999999999299</v>
       </c>
-      <c r="D39">
+      <c r="D39" s="11">
         <v>2.3317647058823532</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
+    <cfRule type="expression" dxfId="9" priority="5">
+      <formula>$A1=1</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="8" priority="4">
+      <formula>$A1=2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="3">
+      <formula>$A1=3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="7" priority="2">
+      <formula>$A1=4</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="1">
+      <formula>$A1=5</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
